--- a/data/income_statement/2digits/size/50_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/50_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>50-Water transport</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>50-Water transport</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,647 +841,732 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>764608.21306</v>
+        <v>1105035.15111</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>861414.0442100002</v>
+        <v>1202074.08481</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>927769.79561</v>
+        <v>1209533.8008</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1016215.02877</v>
+        <v>1303586.58746</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1421499.84925</v>
+        <v>1857218.67843</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1363856.07375</v>
+        <v>1804557.19512</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1317461.49458</v>
+        <v>1780475.48054</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1210064.14451</v>
+        <v>1588921.97641</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1479967.55774</v>
+        <v>1816934.52557</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3715553.54823</v>
+        <v>4270690.9517</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3687894.2294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4282589.36552</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5029613.416</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>389864.82306</v>
+        <v>453914.32692</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>371979.3932999999</v>
+        <v>438129.3647399999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>393989.03613</v>
+        <v>454516.51202</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>405954.81019</v>
+        <v>461495.68663</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>693509.8917799999</v>
+        <v>768597.09169</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>651058.31397</v>
+        <v>752935.0721600001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>704799.5347300001</v>
+        <v>788331.7941300001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>571198.0621</v>
+        <v>645276.08554</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>760295.7044299999</v>
+        <v>849049.1512999999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1600497.35536</v>
+        <v>1736269.56346</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1663346.86189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1786107.80559</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1683428.376</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>368455.4539399999</v>
+        <v>635961.7965299999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>477426.81526</v>
+        <v>744257.7258</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>523154.41147</v>
+        <v>741476.89816</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>595101.6510600001</v>
+        <v>821060.1662999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>690206.10085</v>
+        <v>1035450.28923</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>694445.1472799999</v>
+        <v>1015777.60037</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>595742.89358</v>
+        <v>951161.28613</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>619798.4855</v>
+        <v>904350.63115</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>691465.8062100001</v>
+        <v>930039.6577699999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2069874.19193</v>
+        <v>2474940.95084</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1981861.96714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2426857.6749</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3239379.136</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>6287.936060000001</v>
+        <v>15159.02766</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>12007.83565</v>
+        <v>19686.99427</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>10626.34801</v>
+        <v>13540.39062</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>15158.56752</v>
+        <v>21030.73453</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>37783.85662</v>
+        <v>53171.29751</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>18352.6125</v>
+        <v>35844.52259</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>16919.06627</v>
+        <v>40982.40028</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>19067.59691</v>
+        <v>39295.25972</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>28206.0471</v>
+        <v>37845.7165</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>45182.00094</v>
+        <v>59480.4374</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>42685.40037</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>69623.88503</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>106805.904</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>3689.114230000001</v>
+        <v>6102.673130000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2998.36703</v>
+        <v>4422.92417</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1777.77883</v>
+        <v>3354.19067</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4580.61711</v>
+        <v>5502.864509999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>4836.59367</v>
+        <v>6268.395259999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3737.69637</v>
+        <v>4570.5895</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>8654.8305</v>
+        <v>6099.64198</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>7646.01531</v>
+        <v>4923.98564</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>8112.310439999999</v>
+        <v>3902.82581</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>15369.20628</v>
+        <v>17509.93471</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>23761.35792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>22042.78983</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>49039.109</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3108.73817</v>
+        <v>5215.34263</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1857.41608</v>
+        <v>3219.66132</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1056.5987</v>
+        <v>2569.86585</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3484.51488</v>
+        <v>4117.9335</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>3712.94365</v>
+        <v>4290.073520000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2619.22025</v>
+        <v>3199.24676</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>7799.160599999999</v>
+        <v>5172.438139999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>6745.605390000001</v>
+        <v>3697.52779</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>8012.748769999999</v>
+        <v>3280.08922</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>13965.24079</v>
+        <v>15246.39206</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>22320.96614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20153.88382</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>41501.308</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>319.87196</v>
+        <v>378.87359</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>917.8134500000001</v>
+        <v>941.34078</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>568.49695</v>
+        <v>582.90925</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>639.00325</v>
+        <v>726.5697200000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>351.27185</v>
+        <v>306.94665</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>324.51824</v>
+        <v>327.32823</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>748.3671200000001</v>
+        <v>801.1268</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>177.31524</v>
+        <v>570.44439</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>71.39328</v>
+        <v>225.21989</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1341.78762</v>
+        <v>2192.19365</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>883.11703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1310.65264</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>7226.521</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>260.5041</v>
+        <v>508.4569100000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>223.1375</v>
+        <v>261.92207</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>152.68318</v>
+        <v>201.41557</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>457.09898</v>
+        <v>658.3612899999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>772.3781700000001</v>
+        <v>1671.37509</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>793.95788</v>
+        <v>1044.01451</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>107.30278</v>
+        <v>126.07704</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>723.09468</v>
+        <v>656.01346</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>28.16839</v>
+        <v>397.5167</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>62.17787000000001</v>
+        <v>71.349</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>557.27475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>578.25337</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>311.28</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>760919.0988299999</v>
+        <v>1098932.47798</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>858415.6771800001</v>
+        <v>1197651.16064</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>925992.0167799999</v>
+        <v>1206179.61013</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1011634.41166</v>
+        <v>1298083.72295</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1416663.25558</v>
+        <v>1850950.28317</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1360118.37738</v>
+        <v>1799986.60562</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1308806.66408</v>
+        <v>1774375.83856</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1202418.1292</v>
+        <v>1583997.99077</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1471855.2473</v>
+        <v>1813031.69976</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3700184.34195</v>
+        <v>4253181.01699</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3664132.87148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4260546.57569</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4980574.307</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>657837.99063</v>
+        <v>1011409.84884</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>713378.4650699999</v>
+        <v>1020865.37301</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>769456.7170800001</v>
+        <v>1025425.29699</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>888357.3765</v>
+        <v>1151256.64688</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1202617.79574</v>
+        <v>1590819.09172</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1129186.64558</v>
+        <v>1480428.24184</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1090191.3197</v>
+        <v>1498388.54635</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1041459.92748</v>
+        <v>1323843.34075</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1284442.54858</v>
+        <v>1553950.3473</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3137668.96237</v>
+        <v>3501531.77461</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3159893.73839</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3603515.52603</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4390413.997</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>6832.72002</v>
+        <v>6802.16639</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>41015.05847</v>
+        <v>40234.77335</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>5051.91821</v>
+        <v>4609.862</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>6642.83988</v>
+        <v>10483.52244</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>4309.14595</v>
+        <v>3587.92951</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>5090.14617</v>
+        <v>6518.795990000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>12340.83993</v>
+        <v>40467.77537</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3639.26454</v>
+        <v>9257.929169999999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3301.25596</v>
+        <v>19583.68503</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>13600.21077</v>
+        <v>16646.59682</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>18658.61063</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>34816.36403</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>26380.17</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>69453.68025999999</v>
+        <v>81389.55310999999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>59776.96874999999</v>
+        <v>63955.12853</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>85590.82888000002</v>
+        <v>87001.98656999999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>123553.47025</v>
+        <v>130110.83981</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>83526.30219</v>
+        <v>101647.2264</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>88373.545</v>
+        <v>96970.03083000002</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>95408.06818</v>
+        <v>103689.75577</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>83720.97383000002</v>
+        <v>89129.58756</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>178065.85617</v>
+        <v>196649.0081</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>297541.07622</v>
+        <v>311246.57054</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>257242.51663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>281478.87638</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>294640.62</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>580538.49448</v>
+        <v>923132.1797</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>607280.13686</v>
+        <v>911317.0052100001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>678533.3527299999</v>
+        <v>933729.22592</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>755557.5693399999</v>
+        <v>1003774.9169</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1101425.19126</v>
+        <v>1471043.99366</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1022522.29165</v>
+        <v>1361973.54631</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>972324.40948</v>
+        <v>1343015.18351</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>935500.7739199999</v>
+        <v>1206690.26071</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1098040.22457</v>
+        <v>1332360.14571</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2821040.6072</v>
+        <v>3169200.70172</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2869184.46493</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3274430.32021</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4060305.77</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1013.09587</v>
+        <v>85.94964</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>5306.300990000001</v>
+        <v>5358.46592</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>280.61726</v>
+        <v>84.2225</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>2603.49703</v>
+        <v>6887.367730000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>13357.15634</v>
+        <v>14539.94215</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>13200.66276</v>
+        <v>14965.86871</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>10118.00211</v>
+        <v>11215.8317</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>18598.91519</v>
+        <v>18765.56331</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>5035.21188</v>
+        <v>5357.50846</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>5487.068179999999</v>
+        <v>4437.90553</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>14808.1462</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>12789.96541</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>9087.437</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>103081.1082</v>
+        <v>87522.62914</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>145037.21211</v>
+        <v>176785.78763</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>156535.2997</v>
+        <v>180754.31314</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>123277.03516</v>
+        <v>146827.07607</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>214045.45984</v>
+        <v>260131.19145</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>230931.7318</v>
+        <v>319558.36378</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>218615.34438</v>
+        <v>275987.29221</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>160958.20172</v>
+        <v>260154.65002</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>187412.69872</v>
+        <v>259081.35246</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>562515.3795800001</v>
+        <v>751649.24238</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>504239.13309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>657031.04966</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>590160.3100000001</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>98686.57218999999</v>
+        <v>131710.98673</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>105356.24937</v>
+        <v>147398.16291</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>120687.01982</v>
+        <v>147733.471</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>100803.16207</v>
+        <v>139345.40941</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>149207.56978</v>
+        <v>185575.96382</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>163401.26372</v>
+        <v>210827.87415</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>173016.09778</v>
+        <v>235362.78243</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>157076.86807</v>
+        <v>194101.35753</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>139316.20052</v>
+        <v>200825.37806</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>286265.78482</v>
+        <v>313294.3093</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>303028.54637</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>325020.5635</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>409007.834</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1389.13967</v>
+        <v>1314.29159</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>8.23104</v>
+        <v>9.386979999999999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>426.98352</v>
+        <v>502.08111</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>0.4722</v>
@@ -1589,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>5.5255</v>
+        <v>6.13802</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>157.17926</v>
@@ -1606,479 +1592,544 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1040.421</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>7312.49233</v>
+        <v>10384.01402</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>10329.37103</v>
+        <v>12825.51579</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>6470.90144</v>
+        <v>8642.56675</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>8732.11225</v>
+        <v>8129.45645</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>15136.40097</v>
+        <v>17967.38847</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>18058.94135</v>
+        <v>22466.92252</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>21260.57468</v>
+        <v>22005.61863</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>26657.35979</v>
+        <v>27004.38846</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>12366.42535</v>
+        <v>15618.31479</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>16808.71078</v>
+        <v>16318.09831</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>27432.43868</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>26018.97164</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>45585.845</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>89984.94018999999</v>
+        <v>120012.68112</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>95018.6473</v>
+        <v>134563.26014</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>113789.13486</v>
+        <v>138588.82314</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>92070.57762000001</v>
+        <v>131215.48076</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>134071.16881</v>
+        <v>167608.57535</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>145336.79687</v>
+        <v>188354.81361</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>151598.34384</v>
+        <v>213199.98454</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>130419.50828</v>
+        <v>167096.96907</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>126949.77517</v>
+        <v>185207.06327</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>269456.41154</v>
+        <v>296975.54849</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>275596.10769</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>299001.59186</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>362381.568</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>4394.53601</v>
+        <v>-44188.35759000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>39680.96274</v>
+        <v>29387.62472</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>35848.27987999999</v>
+        <v>33020.84214</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>22473.87309</v>
+        <v>7481.66666</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>64837.89006000001</v>
+        <v>74555.22762999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>67530.46807999999</v>
+        <v>108730.48963</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>45599.2466</v>
+        <v>40624.50978</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>3881.33365</v>
+        <v>66053.29249000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>48096.49819999999</v>
+        <v>58255.9744</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>276249.59476</v>
+        <v>438354.93308</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>201210.58672</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>332010.48616</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>181152.476</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>65234.271</v>
+        <v>169802.53911</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>40922.80763</v>
+        <v>181661.57291</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>59432.57423000001</v>
+        <v>170758.46685</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>48694.52561</v>
+        <v>133393.88562</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>99882.64808</v>
+        <v>242893.21095</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>82809.13225</v>
+        <v>290698.10257</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>147858.30728</v>
+        <v>370089.64131</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>95809.13817000001</v>
+        <v>289450.647</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>85945.81328</v>
+        <v>347642.17344</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>833876.01081</v>
+        <v>1331357.52232</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>352030.7911500001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>532052.6627400001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>867650.716</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>6830.20196</v>
+        <v>529.6073299999999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>794.2501099999999</v>
+        <v>1747.22493</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2782.66269</v>
+        <v>390.18839</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>3383.56738</v>
+        <v>16211.46914</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1688.18579</v>
+        <v>20983.21477</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>583.41745</v>
+        <v>85177.87711</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1446.55166</v>
+        <v>39635.52088</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>638.3531700000001</v>
+        <v>4352.23126</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>2604.46711</v>
+        <v>72610.16648</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>25225.41059</v>
+        <v>62562.29161</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>41103.44948</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>10043.06786</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>33707.755</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>97.74844</v>
+        <v>727.80303</v>
       </c>
       <c r="D27" s="48" t="n">
+        <v>23.25323</v>
+      </c>
+      <c r="E27" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="E27" s="48" t="n">
-        <v>105.73145</v>
-      </c>
       <c r="F27" s="48" t="n">
-        <v>82.61705000000001</v>
+        <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>35.7585</v>
+        <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>23.92845</v>
+        <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>3518.10524</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0.1229</v>
+        <v>4399.81172</v>
       </c>
       <c r="K27" s="48" t="n">
+        <v>24980.95415</v>
+      </c>
+      <c r="L27" s="48" t="n">
+        <v>24999.99</v>
+      </c>
+      <c r="M27" s="48" t="n">
+        <v>54792.82103</v>
+      </c>
+      <c r="N27" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="L27" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>5044.56023</v>
+        <v>14484.26292</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>3026.65506</v>
+        <v>20131.29656</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3845.43052</v>
+        <v>6550.73199</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5250.63142</v>
+        <v>9572.72334</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>5655.583009999999</v>
+        <v>13856.28717</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>4789.84433</v>
+        <v>13761.68941</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>6003.792199999999</v>
+        <v>39277.05635</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>5031.85084</v>
+        <v>30765.2156</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4954.476549999999</v>
+        <v>39368.41941</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>23473.61618</v>
+        <v>52659.41883</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>24750.64194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>70591.49172000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>37347.034</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>796.0632699999999</v>
+        <v>3794.22001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>394.82414</v>
+        <v>396.54992</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>240.51155</v>
+        <v>237.71621</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>94.91382</v>
+        <v>307.26213</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>126.00595</v>
+        <v>1519.533</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>3310.21118</v>
+        <v>3619.54348</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4386.20494</v>
+        <v>2951.42794</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>301.41348</v>
+        <v>3818.85592</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>444.11965</v>
+        <v>7267.07205</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>11935.8218</v>
+        <v>11955.30651</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>16478.41837</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>16473.79966</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>26095.315</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>453.76362</v>
+        <v>575.2156</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>380.80004</v>
+        <v>368.82963</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>667.77508</v>
+        <v>952.19711</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>619.50024</v>
+        <v>563.70683</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>221.39102</v>
+        <v>426.92252</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>11.52996</v>
+        <v>2609.55526</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>103.84451</v>
+        <v>242.50746</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>177.19166</v>
+        <v>418.65718</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>172.90722</v>
+        <v>2174.65211</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>599.64762</v>
+        <v>599.64777</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>905.45028</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>905.4504300000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>3060.191</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>361.59141</v>
+        <v>699.44717</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>3.0262</v>
+        <v>186.57283</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1024.94591</v>
+        <v>463.1515</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>59.71597</v>
+        <v>274.71412</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>209.63811</v>
+        <v>926.1454</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2514.54301</v>
+        <v>3471.62437</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>194.26038</v>
+        <v>3239.98857</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>144.22466</v>
+        <v>118.82615</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>328.10043</v>
+        <v>1299.74532</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>242.43938</v>
+        <v>6407.64798</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>580.1854299999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1745.29071</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>636.1130000000001</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>46681.48295000001</v>
+        <v>139536.8069</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>31389.37945</v>
+        <v>151401.90169</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>46292.62841</v>
+        <v>151269.87669</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>34234.15879</v>
+        <v>95719.50214</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>84181.2868</v>
+        <v>183246.99958</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>67829.16848000001</v>
+        <v>167725.19094</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>115335.53263</v>
+        <v>265404.45968</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>80401.92590999999</v>
+        <v>238043.75986</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>68778.44353999999</v>
+        <v>189720.91837</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>747675.61437</v>
+        <v>1136255.56324</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>242370.21645</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>348735.5893</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>724305.027</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0.00114</v>
+        <v>4.201140000000001</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>158.08945</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>0.11875</v>
+        <v>0</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>18.64245</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>0.75617</v>
+        <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
+        <v>620.2164200000001</v>
+      </c>
+      <c r="I33" s="48" t="n">
+        <v>203.89682</v>
+      </c>
+      <c r="J33" s="48" t="n">
+        <v>10.70551</v>
+      </c>
+      <c r="K33" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="48" t="n">
-        <v>8.532290000000001</v>
-      </c>
-      <c r="J33" s="48" t="n">
-        <v>86.75146000000001</v>
-      </c>
-      <c r="K33" s="48" t="n">
-        <v>8.95722</v>
-      </c>
       <c r="L33" s="48" t="n">
-        <v>96.00676</v>
+        <v>96.00142</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>81.79548</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>50.733</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2102,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>12.29754</v>
+        <v>55.58996</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>0</v>
@@ -2113,248 +2164,283 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>72.023</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>4968.857980000001</v>
+        <v>9450.97501</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>4761.81055</v>
+        <v>7233.88204</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>4472.480320000001</v>
+        <v>10894.31541</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>4950.778490000001</v>
+        <v>10725.86547</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>7764.042729999999</v>
+        <v>21934.10851</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>3746.48939</v>
+        <v>13712.40558</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>16861.48343</v>
+        <v>15616.67837</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>9015.00655</v>
+        <v>7466.99384</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>8654.341559999999</v>
+        <v>10220.24555</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>24627.45411</v>
+        <v>35821.65496</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>25760.63372</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>28683.35655</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>42376.525</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>48696.43418</v>
+        <v>131754.71963</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>44272.06137</v>
+        <v>139560.39329</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>58692.17528</v>
+        <v>160137.86071</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>76162.00128999999</v>
+        <v>120531.02374</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>121233.38489</v>
+        <v>275000.10854</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>77692.34087</v>
+        <v>168696.72039</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>141881.41825</v>
+        <v>324240.40489</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>98861.43790999999</v>
+        <v>274496.66404</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>79717.49492</v>
+        <v>187163.07646</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>822837.63798</v>
+        <v>1135338.38487</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>253721.80438</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>394197.06622</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>755849.01</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>515.72518</v>
+        <v>1327.03373</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>431.61313</v>
+        <v>1160.33427</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>594.6209200000001</v>
+        <v>801.9889599999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>765.86311</v>
+        <v>1022.81126</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2826.39099</v>
+        <v>3865.78721</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>679.3323800000001</v>
+        <v>1228.69491</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1075.22316</v>
+        <v>1377.44908</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1639.7738</v>
+        <v>1838.44529</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>948.7296700000001</v>
+        <v>2110.22496</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4644.76137</v>
+        <v>4654.6623</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5821.30457</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4954.73985</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>6283.049</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>400.64899</v>
+        <v>559.1481699999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>723.76611</v>
+        <v>962.5884</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1323.27535</v>
+        <v>1346.48656</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>853.0903000000001</v>
+        <v>1227.71066</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1343.93069</v>
+        <v>1476.08983</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>843.03391</v>
+        <v>1105.7931</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>986.66495</v>
+        <v>1487.86952</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>736.44302</v>
+        <v>948.19291</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1635.37243</v>
+        <v>829.2254399999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>2440.55834</v>
+        <v>3001.15291</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>5655.1665</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>4916.65599</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>5290.07</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>382.30757</v>
+        <v>371.37174</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>0</v>
+        <v>119.31952</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>3.82734</v>
+        <v>239.79678</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>320.79602</v>
+        <v>320.79646</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>96.54056999999999</v>
+        <v>32.6209</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>3608.19865</v>
+        <v>0.09031</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>212.98056</v>
+        <v>173.43038</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>51.40813</v>
+        <v>5422.00473</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>4.03097</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>1065.03921</v>
+        <v>1047.74124</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>311.54442</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>994.904</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>43801.88788</v>
+        <v>120430.56778</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>30963.16742</v>
+        <v>124811.6369</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>52023.40186</v>
+        <v>152915.61551</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>25708.95505</v>
+        <v>68628.19577999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>90551.87870999999</v>
+        <v>221755.64058</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>69200.91406</v>
+        <v>162901.78482</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>130372.09539</v>
+        <v>314026.68668</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>88284.62447999998</v>
+        <v>257179.15147</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>71111.16559999999</v>
+        <v>178431.6892</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>798446.85326</v>
+        <v>1114999.74467</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>237699.70323</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>375509.28905</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>731214.88</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0.05987</v>
+        <v>0.88164</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
@@ -2372,25 +2458,30 @@
         <v>25.60201</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>94.48339</v>
+        <v>94.48361</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>29.93289</v>
+        <v>24.85548</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>85.05177999999999</v>
+        <v>98.62224999999999</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1185.41118</v>
+        <v>96.00142</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>421.79061</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>65.40688</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>139.575</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2399,7 +2490,7 @@
         <v>204.61317</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>0.48496</v>
+        <v>1.01812</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0</v>
@@ -2425,386 +2516,436 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>3595.80469</v>
+        <v>9065.716570000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>11948.90154</v>
+        <v>12301.90103</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>4746.564850000001</v>
+        <v>4832.95478</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>48507.90070000001</v>
+        <v>49326.11347</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>26380.95459</v>
+        <v>47836.28068</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3335.25986</v>
+        <v>3434.75524</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>9139.970800000001</v>
+        <v>7080.48562</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>8119.25559</v>
+        <v>9084.014160000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>5933.14447</v>
+        <v>5689.28364</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>15055.01462</v>
+        <v>11539.08233</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>4123.83947</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>8439.43003</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>11926.532</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>13763.24079</v>
+        <v>50961.55666999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>13561.6576</v>
+        <v>62175.03738</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>19757.81838</v>
+        <v>73866.71492</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>19095.81026</v>
+        <v>83432.61405</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>36347.13662999999</v>
+        <v>93791.61657</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>34104.54251</v>
+        <v>73919.06342999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>43246.48774</v>
+        <v>139786.06816</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>33430.32872</v>
+        <v>110541.23102</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>36579.40262</v>
+        <v>104633.10423</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>130966.61548</v>
+        <v>390916.61846</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>80153.87359</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>205117.29972</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>167017.047</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>12503.35103</v>
+        <v>35415.85499</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>12967.57951</v>
+        <v>44623.07121</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>18380.98871</v>
+        <v>36523.01216</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>17903.05082</v>
+        <v>31307.12772</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>31578.67096</v>
+        <v>62140.84773</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>30263.79909</v>
+        <v>55009.34343</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>41674.99552</v>
+        <v>106220.63784</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>31127.58897</v>
+        <v>76432.08313</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>32235.22767</v>
+        <v>52090.56019</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>92465.64246999999</v>
+        <v>142228.0946</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>60867.22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>102566.31702</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>84934.675</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1259.88976</v>
+        <v>15545.70168</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>594.07809</v>
+        <v>17551.96617</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1376.82967</v>
+        <v>37343.70276</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1192.75944</v>
+        <v>52125.48633</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>4768.46567</v>
+        <v>31650.76884</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>3840.74342</v>
+        <v>18909.72</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1571.49222</v>
+        <v>33565.43032</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2302.73975</v>
+        <v>34109.14789</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>4344.174950000001</v>
+        <v>52542.54404</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>38500.97301</v>
+        <v>248688.52386</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>19286.65359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>102550.9827</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>82082.372</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>7169.13204</v>
+        <v>-57102.09478</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>22770.0514</v>
+        <v>9313.766960000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>16830.86045</v>
+        <v>-30225.26664</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-24089.41285</v>
+        <v>-63088.08551</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>7140.01662</v>
+        <v>-51343.28653</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>38542.71694999999</v>
+        <v>156812.80838</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>8329.64789</v>
+        <v>-53312.32196</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-32601.29481</v>
+        <v>-29533.95557</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>17745.41394</v>
+        <v>114101.96715</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>156321.35211</v>
+        <v>243457.45207</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>219365.6999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>264748.78296</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>125937.135</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>18938.85211</v>
+        <v>40388.47807</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>25985.68754</v>
+        <v>80304.92281</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>18204.3936</v>
+        <v>48875.59324</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>36894.0031</v>
+        <v>65202.60196</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>28818.89926</v>
+        <v>87180.59255000002</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>34329.14532</v>
+        <v>164028.34077</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>38171.29981</v>
+        <v>132399.72958</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>41351.35495</v>
+        <v>124811.1944</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>29973.20118</v>
+        <v>143141.09261</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>310849.63608</v>
+        <v>409504.8432999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>129310.9908</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>210249.28745</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>247401.983</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>76.32123</v>
+        <v>232.15744</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>313.64868</v>
+        <v>367.3438</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>25.26888</v>
+        <v>19090.97177</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2000.88651</v>
+        <v>2113.87153</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2972.33192</v>
+        <v>2646.67695</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>498.28874</v>
+        <v>759.60995</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>42.68998000000001</v>
+        <v>830.5914799999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>54.70412</v>
+        <v>328.1214000000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>117.64873</v>
+        <v>437.48622</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>5749.71537</v>
+        <v>6158.06946</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>744.52158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>777.9562</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3229.889</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>18862.53088</v>
+        <v>40156.32063</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>25672.03886</v>
+        <v>79937.57901</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>18179.12472</v>
+        <v>29784.62147</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>34893.11659</v>
+        <v>63088.73043</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>25846.56734</v>
+        <v>84533.91560000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>33830.85658</v>
+        <v>163268.73082</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>38128.60983</v>
+        <v>131569.1381</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>41296.65083</v>
+        <v>124483.073</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>29855.55245</v>
+        <v>142703.60639</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>305099.92071</v>
+        <v>403346.77384</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>128566.46922</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>209471.33125</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>244172.094</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>24198.41943</v>
+        <v>18619.93298</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>32213.85439</v>
+        <v>134617.25036</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>160087.70342</v>
+        <v>214858.48537</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>52604.24956</v>
+        <v>127141.59086</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>40540.54435</v>
+        <v>86038.55245999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>101845.74146</v>
+        <v>213681.27412</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>30739.93635</v>
+        <v>96303.75281999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>134912.70037</v>
+        <v>182958.69599</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>33719.86855</v>
+        <v>81610.04646000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>210472.42346</v>
+        <v>196669.88104</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>76190.42647000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>79320.81823999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>302039.15</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>800.7951800000001</v>
+        <v>3547.77776</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>151.91566</v>
+        <v>1979.06279</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1557.36494</v>
+        <v>1227.40793</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>739.02626</v>
+        <v>1243.84954</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2032.51981</v>
+        <v>2013.33561</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2070.6105</v>
+        <v>3718.62402</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>2323.17661</v>
+        <v>2361.18279</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2991.74031</v>
+        <v>2128.70417</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>2176.49209</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>922.2735600000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>4125.9204</v>
+        <v>1138.93579</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>477.8701</v>
+        <v>963.54339</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>396.37954</v>
+        <v>10987.84296</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4293.900880000001</v>
+        <v>4378.31973</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2042.83857</v>
+        <v>1770.56726</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>917.1624899999999</v>
+        <v>2027.38996</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>602.4248</v>
+        <v>1078.47977</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>884.231</v>
+        <v>1929.14151</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>393.82187</v>
+        <v>3998.169159999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>7961.62574</v>
+        <v>8491.95455</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1936.9398</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3424.06732</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>65133.324</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>19271.70385</v>
+        <v>13933.21943</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>31584.06862999999</v>
+        <v>131674.64418</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>158133.95894</v>
+        <v>202643.23448</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>47571.32242</v>
+        <v>121519.42159</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>36465.18597</v>
+        <v>82254.64959</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>98857.96846999999</v>
+        <v>207935.26014</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>27814.33494</v>
+        <v>92864.09026</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>131036.72906</v>
+        <v>178900.85031</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>31149.55459</v>
+        <v>75435.38520999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>201379.70354</v>
+        <v>187046.83231</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>73331.21311</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>74974.47736</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>236905.826</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1909.56472</v>
+        <v>-35333.54969</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>16541.88455</v>
+        <v>-44998.56058999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-125052.44937</v>
+        <v>-196208.15877</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-39799.65931</v>
+        <v>-125027.07441</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-4581.62847</v>
+        <v>-50201.24644</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-28973.87919</v>
+        <v>107159.87503</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>15761.01135</v>
+        <v>-17216.3452</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-126162.64023</v>
+        <v>-87681.45715999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>13998.74657</v>
+        <v>175633.0133</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>256698.56473</v>
+        <v>456292.41433</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>272486.26423</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>395677.2521699999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>71299.96799999999</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>4060.2772</v>
+        <v>5198.47422</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3624.935100000001</v>
+        <v>4148.85091</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>5670.88655</v>
+        <v>6377.92107</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4173.57837</v>
+        <v>5122.594950000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>6769.79157</v>
+        <v>10121.00461</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>5995.2826</v>
+        <v>8705.21002</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>6128.21423</v>
+        <v>8707.152109999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3972.08315</v>
+        <v>8373.18757</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>4779.40335</v>
+        <v>9865.890410000002</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>23134.4869</v>
+        <v>26155.64566</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>16864.02673</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>24438.47944</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>36017.679</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-2150.71248</v>
+        <v>-40532.02391</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>12916.94945</v>
+        <v>-49147.41150000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-130723.33592</v>
+        <v>-202586.07984</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-43973.23768</v>
+        <v>-130149.66936</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-11351.42004</v>
+        <v>-60322.25105</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-34969.16178999999</v>
+        <v>98454.66501000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>9632.797120000001</v>
+        <v>-25923.49731</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-130134.72338</v>
+        <v>-96054.64473</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>9219.343219999999</v>
+        <v>165767.12289</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>233564.07783</v>
+        <v>430136.76867</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>255622.2375</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>371238.77273</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>35282.289</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>465</v>
+        <v>399</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>573</v>
+        <v>461</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>532</v>
+        <v>419</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>534</v>
+        <v>393</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>555</v>
+        <v>384</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>524</v>
+        <v>376</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>372</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>